--- a/jdks/src/main/webapp/ksxt/resource/down/考生导入模板.xlsx
+++ b/jdks/src/main/webapp/ksxt/resource/down/考生导入模板.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>身份证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +34,45 @@
   </si>
   <si>
     <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00A1319</t>
+  </si>
+  <si>
+    <t>00A1320</t>
+  </si>
+  <si>
+    <t>00A1338</t>
+  </si>
+  <si>
+    <t>00A1401</t>
+  </si>
+  <si>
+    <t>马文健</t>
+  </si>
+  <si>
+    <t>黄如育</t>
+  </si>
+  <si>
+    <t>吴锦宋</t>
+  </si>
+  <si>
+    <t>宓慧斌</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>2018030101001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018030101002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018030101003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,9 +116,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -360,30 +405,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
+    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.4140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/jdks/src/main/webapp/ksxt/resource/down/考生导入模板.xlsx
+++ b/jdks/src/main/webapp/ksxt/resource/down/考生导入模板.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{0113765C-F212-477A-A15F-A9B7476387C6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,67 +20,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>准考证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>性别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00A1319</t>
-  </si>
-  <si>
-    <t>00A1320</t>
-  </si>
-  <si>
-    <t>00A1338</t>
-  </si>
-  <si>
-    <t>00A1401</t>
-  </si>
-  <si>
-    <t>马文健</t>
-  </si>
-  <si>
-    <t>黄如育</t>
-  </si>
-  <si>
-    <t>吴锦宋</t>
-  </si>
-  <si>
-    <t>宓慧斌</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>2018030101001</t>
+    <t>考生身份证件号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018030101002</t>
+    <t>考生准考证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018030101003</t>
+    <t>考生姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考生座位号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,14 +82,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,119 +367,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.4140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="1" max="1" width="15.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"男,女"</formula1>
     </dataValidation>
   </dataValidations>
